--- a/regions/9/biznes seqtori/sakutrebis formis mikhedvit.xlsx
+++ b/regions/9/biznes seqtori/sakutrebis formis mikhedvit.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84FD027-91F0-46B5-AD3F-40A925FD16CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,9 +16,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
-  <si>
-    <t>ბიზენს სექტორი</t>
-  </si>
   <si>
     <t>საწარმოთა ბრუნვა კახეთის რეგიონში, საკუთრების ფორმების მიხედვით, მლნ. ლარი</t>
   </si>
@@ -44,11 +42,14 @@
   <si>
     <t>დასაქმებულთა შრომის საშუალოთვიური ანაზღაურება კახეთის რეგიონში, საკუთრების ფორმების მიხედვით, ლარი</t>
   </si>
+  <si>
+    <t>ბიზნეს სექტორი</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -135,7 +136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -176,10 +177,16 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -270,6 +277,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -305,6 +329,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -480,11 +521,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -495,17 +536,17 @@
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="4">
         <v>2006</v>
@@ -552,10 +593,16 @@
       <c r="P5" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q5" s="5">
+        <v>2021</v>
+      </c>
+      <c r="R5" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="9">
         <v>225.9</v>
@@ -602,10 +649,16 @@
       <c r="P6" s="10">
         <v>2011.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="Q6" s="10">
+        <v>2224.3177190210699</v>
+      </c>
+      <c r="R6" s="10">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="11">
         <v>197.9</v>
@@ -652,10 +705,16 @@
       <c r="P7" s="12">
         <v>1877.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="Q7" s="12">
+        <v>2071.4306023029017</v>
+      </c>
+      <c r="R7" s="12">
+        <v>2578.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="11">
         <v>18.5</v>
@@ -702,10 +761,16 @@
       <c r="P8" s="12">
         <v>93.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="12">
+        <v>124.09567271816762</v>
+      </c>
+      <c r="R8" s="12">
+        <v>149.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="11">
         <v>9.5</v>
@@ -752,8 +817,14 @@
       <c r="P9" s="12">
         <v>40.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="12">
+        <v>28.791444000000002</v>
+      </c>
+      <c r="R9" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -764,9 +835,9 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -778,7 +849,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -790,7 +861,7 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="4">
         <v>2006</v>
@@ -837,10 +908,16 @@
       <c r="P13" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q13" s="5">
+        <v>2021</v>
+      </c>
+      <c r="R13" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="9">
         <v>138.9</v>
@@ -887,10 +964,16 @@
       <c r="P14" s="10">
         <v>1206</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="Q14" s="10">
+        <v>1493.868752207999</v>
+      </c>
+      <c r="R14" s="10">
+        <v>1729.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" s="11">
         <v>110.6</v>
@@ -937,10 +1020,16 @@
       <c r="P15" s="12">
         <v>1028.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="Q15" s="12">
+        <v>1258.302039426</v>
+      </c>
+      <c r="R15" s="12">
+        <v>1549.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" s="11">
         <v>19.600000000000001</v>
@@ -987,10 +1076,16 @@
       <c r="P16" s="12">
         <v>96.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="12">
+        <v>119.68792611699999</v>
+      </c>
+      <c r="R16" s="12">
+        <v>134.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" s="11">
         <v>8.6</v>
@@ -1037,8 +1132,14 @@
       <c r="P17" s="12">
         <v>81.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="12">
+        <v>115.87878666499998</v>
+      </c>
+      <c r="R17" s="12">
+        <v>45.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1049,9 +1150,9 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1063,7 +1164,7 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1074,7 +1175,7 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="4">
         <v>2006</v>
@@ -1121,10 +1222,16 @@
       <c r="P21" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q21" s="5">
+        <v>2021</v>
+      </c>
+      <c r="R21" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="13">
         <v>15863</v>
@@ -1171,10 +1278,16 @@
       <c r="P22" s="13">
         <v>20656.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="Q22" s="13">
+        <v>22067.430786132998</v>
+      </c>
+      <c r="R22" s="16">
+        <v>22695</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" s="14">
         <v>11407</v>
@@ -1221,10 +1334,16 @@
       <c r="P23" s="15">
         <v>19262.2</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="Q23" s="15">
+        <v>20638.434790573003</v>
+      </c>
+      <c r="R23" s="17">
+        <v>21177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" s="14">
         <v>595</v>
@@ -1271,10 +1390,16 @@
       <c r="P24" s="15">
         <v>897</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="15">
+        <v>736.56060605999994</v>
+      </c>
+      <c r="R24" s="17">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" s="14">
         <v>3861</v>
@@ -1321,8 +1446,14 @@
       <c r="P25" s="15">
         <v>497</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="15">
+        <v>692.43538950000004</v>
+      </c>
+      <c r="R25" s="17">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1333,9 +1464,9 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1347,7 +1478,7 @@
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1358,7 +1489,7 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="4">
         <v>2006</v>
@@ -1405,10 +1536,16 @@
       <c r="P29" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q29" s="5">
+        <v>2021</v>
+      </c>
+      <c r="R29" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" s="9">
         <v>141.19999999999999</v>
@@ -1455,10 +1592,16 @@
       <c r="P30" s="10">
         <v>832.7</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="Q30" s="10">
+        <v>901.1</v>
+      </c>
+      <c r="R30" s="10">
+        <v>1114.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31" s="11">
         <v>134.80000000000001</v>
@@ -1505,10 +1648,16 @@
       <c r="P31" s="12">
         <v>792.7</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="Q31" s="12">
+        <v>881.9</v>
+      </c>
+      <c r="R31" s="12">
+        <v>1104.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" s="11">
         <v>559.29999999999995</v>
@@ -1555,10 +1704,16 @@
       <c r="P32" s="12">
         <v>1512.1</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="12">
+        <v>1545.7</v>
+      </c>
+      <c r="R32" s="12">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33" s="11">
         <v>91.5</v>
@@ -1604,6 +1759,12 @@
       </c>
       <c r="P33" s="12">
         <v>866.5</v>
+      </c>
+      <c r="Q33" s="12">
+        <v>646.70000000000005</v>
+      </c>
+      <c r="R33" s="12">
+        <v>908.6</v>
       </c>
     </row>
   </sheetData>
